--- a/Equipe208.xlsx
+++ b/Equipe208.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1108" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1190868-5204-41EB-81D9-108A01B3D358}"/>
+  <xr:revisionPtr revIDLastSave="1243" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A98EF1F-3C10-4C4E-BDD0-41B73E051B85}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
     <sheet name="Assurance Qualité" sheetId="6" r:id="rId2"/>
     <sheet name="Fonctionnalités" sheetId="8" r:id="rId3"/>
+    <sheet name="Documents" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="194">
   <si>
     <t>Fonct.</t>
   </si>
@@ -59,6 +60,9 @@
     <t>Note pondérée</t>
   </si>
   <si>
+    <t>Documents</t>
+  </si>
+  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -102,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">gamepage contient beaucoup de logiques </t>
+  </si>
+  <si>
+    <t>game.page a beaucoup de logique</t>
   </si>
   <si>
     <t>1.2 Arborescence</t>
@@ -112,6 +119,10 @@
   </si>
   <si>
     <t>configuration-jeu-page?</t>
+  </si>
+  <si>
+    <t>client/services groupe pas les services dans un folder 
+Ok pour le serveur</t>
   </si>
   <si>
     <t>Sous-total</t>
@@ -155,6 +166,9 @@
   <si>
     <t>La classe minimise le couplage aux autres classes.
 La classe minimise les longues chaînes d'appels (ex : foo.bar.baz.foo)</t>
+  </si>
+  <si>
+    <t>CanvasNgxComponent est trop couplé, gamepageComponent, gameService</t>
   </si>
   <si>
     <t>2.5 Valeur par défaut</t>
@@ -169,6 +183,9 @@
 Vous n'êtes pas consistant dans votre choix d'initialisation.</t>
   </si>
   <si>
+    <t>ImageDiffService témoigne du problème</t>
+  </si>
+  <si>
     <t>3. Fonctions et méthodes</t>
   </si>
   <si>
@@ -183,6 +200,9 @@
     <t>Votre bfs est trop complexe</t>
   </si>
   <si>
+    <t>bfs encore beaucoup trop complexe</t>
+  </si>
+  <si>
     <t>3.2 Paramètres</t>
   </si>
   <si>
@@ -209,6 +229,11 @@
 return await est redundant</t>
   </si>
   <si>
+    <t>await service.GetGame await inutile
+return await redondant
+addGame dans gameService ne devrait pas être async</t>
+  </si>
+  <si>
     <t>4.3 Message d'erreur</t>
   </si>
   <si>
@@ -228,6 +253,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Groupement des constantes pas bon</t>
   </si>
   <si>
     <t>5.2 Environnement</t>
@@ -289,6 +317,9 @@
 La langue utilisée pour les commentaires doit être uniforme, mais peut être différente que la langue du code source.</t>
   </si>
   <si>
+    <t xml:space="preserve">Messages d'erreurs dans les 2 langues, francais et anglais. </t>
+  </si>
+  <si>
     <t>7.2 Commentaire</t>
   </si>
   <si>
@@ -298,6 +329,9 @@
     <t>Ok</t>
   </si>
   <si>
+    <t>Ex: bannerComponent</t>
+  </si>
+  <si>
     <t>7.3 Enum</t>
   </si>
   <si>
@@ -307,10 +341,16 @@
     <t>Ex: getDifficulty</t>
   </si>
   <si>
+    <t>Pas de folder pourles enums</t>
+  </si>
+  <si>
     <t>7.4 Classe et interface</t>
   </si>
   <si>
     <t>Le code n'utilise pas d'objets anonymes JS et priorise les classes et les interfaces.</t>
+  </si>
+  <si>
+    <t>Plusiuers fichiers d'interfaces sont vides : EX command.ts, canvas.ts</t>
   </si>
   <si>
     <t>7.5 Duplication</t>
@@ -329,10 +369,19 @@
     <t>-0.25 par type: no-magic-numbers, max-params</t>
   </si>
   <si>
+    <t xml:space="preserve">eslint-disable-next-line max-params
+...
+eslint-disable-next-line no-restricted-imports
+</t>
+  </si>
+  <si>
     <t>7.7 Complexité</t>
   </si>
   <si>
     <t>Le code minimise la complexité cyclomatique. (Exemple : plusieurs if/else ou boucles for imbriqués, opérations complexes, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game-Card Handler </t>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -346,6 +395,11 @@
     <t>Les messages d'erreurs doivent être dans des contantes</t>
   </si>
   <si>
+    <t xml:space="preserve">eslint-disable-next-line @typescript-eslint/naming-convention
+Les messages d'erreurs doivent être dans des contantes
+</t>
+  </si>
+  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -384,6 +438,9 @@
 Les Issues sont mis à jour tout au long du projet.</t>
   </si>
   <si>
+    <t xml:space="preserve">Plusieurs MR sont merged sans passer le pipeline. Pas de séparassion seulon le type de merge request. </t>
+  </si>
+  <si>
     <t>8.5 Fichiers</t>
   </si>
   <si>
@@ -451,24 +508,45 @@
     <t>2.1 Vue de création de jeu - modification de l'avant-plan</t>
   </si>
   <si>
+    <t>Mauvaise pointe pour l'efface
+Bon travail!</t>
+  </si>
+  <si>
     <t>2.2 Créer et Joindre une partie un contre un</t>
   </si>
   <si>
+    <t>OK
+Votre GameCardHandlerService n'est pas assez testé</t>
+  </si>
+  <si>
     <t>2.3 Mode Classique en un contre un</t>
   </si>
   <si>
+    <t>Mauvaise gestion de l'abadon d'un joueur</t>
+  </si>
+  <si>
     <t>2.4 Vue de jeu en un contre un et Section des messages</t>
   </si>
   <si>
     <t>2.5 Vue de Configuration - suppression de jeu</t>
   </si>
   <si>
+    <t>Suppresion d'un jeu crée une file d'attente infini</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.6 Messages de partie (local) </t>
   </si>
   <si>
     <t>2.7 Mode Triche</t>
   </si>
   <si>
+    <t>Mauvaise couleur de clignotement
+Bon travail!</t>
+  </si>
+  <si>
+    <t>Vos tests côté client comporte beaucoup de warning</t>
+  </si>
+  <si>
     <t>Erreur de build  / déploiement erroné</t>
   </si>
   <si>
@@ -500,13 +578,116 @@
   </si>
   <si>
     <t>Erreur de build / déploiement erroné</t>
+  </si>
+  <si>
+    <t>Document d'Architecture</t>
+  </si>
+  <si>
+    <t>Protocole de communication</t>
+  </si>
+  <si>
+    <t>Historique des révisions</t>
+  </si>
+  <si>
+    <t>1 Introduction /1</t>
+  </si>
+  <si>
+    <t>Ayez une introduction avec des phrases complètes</t>
+  </si>
+  <si>
+    <t>1 Introduction (commentaires)</t>
+  </si>
+  <si>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>2 Vue des cas d'utilisation /5</t>
+  </si>
+  <si>
+    <t>2 Communication client-serveur /7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 5 : le sens de la relation entre "Identifer" et "valider" une différence doit être inversé.  Les liens entre les acteurs et les CUs ne devraient pas être fléchés. Le CU "Offrir une rétroaction visuelle" est un détail d'implémentation (à retirer). Ce diagramme présente 2 choses en même temps : jouer et la reprise et porte à confusion sur le fait que les 2 situations peuvent arriver en même temps : retirez les CUs en relation avec le jeu et gardez que les CUs en lien avec la reprise vidéo.
+Page 6 : manque la notion d'abandon qui a un comportement différence que "Terminer la partie".
+Page 6, CU 3 : diagramme à retirer : ceci présente de l'information du Sprint 1/2 sauf le classement qui devrait être dans un diagramme séparé. Plusieurs problèmes d'UML : toutes les relations entre 2 CUs devraient avoir un type : "include", "extends" ou une généralisation
+Page 7 : les relations avec le CU "Modifier les constantes de jeu" devraient être des "extends" ou des généralisations :Idem pour "remise des données à leur état initial". Le CU "Consulter l'historique" présente la même situation que "afficher l'historique". La relation entre "Consulter l'historique" et "Réinitialiser l'historique" devrait être un "extend". Le dernier CU devrait être nommé "Réinitialiser le temps d'un jeu" pour avoir la même présentation que le CU de suppression.
+Section globalement bien, mais la présentation est à revoir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Manque de justification claire de l'utilisation des protocoles WebSocket et HTTP
+- Bonne description de chaque protocole utilisé avec la fonctionnalité. Consice, mais bonne
+</t>
+  </si>
+  <si>
+    <t>3 Vue des processus /6</t>
+  </si>
+  <si>
+    <t>3 Description des paquets /12</t>
+  </si>
+  <si>
+    <t>Page 8 : manque la condition de fin pour votre [loop] (temps et nombre de jeux restants). Manque un [alt] dans le cas où un "MouseClick" est invalide.
+Page 9 : pas de notion de "invitationReview()"/"accept()" pour le temps limité : les 2 joueurs sont placés dans le même jeu dès que disponible. Même commentaire que la page 8. Manque la gestion de l'abandon où l'autre joueur peut continuer de jouer.
+Page 10 : Les choix des 3 astuces devraient être des [alt]. Bonne utilisation de [opt] pour les indices sinon.
+Page 11 : renommez "Client 2" par "Other Clients" pour spécifier que ce n'est pas seulement 2 clients qui sont impliqués
+Page 12 : si vous utlisez [opt], la notation IF n'est pas valide : indiquez seulement "Reset All", "Delete Game" ,etc. Ce n'est pas clair ce que "ResetAll" veut dire : est-ce que vous parlez des constantes ?
+Page 13 : Ne dupliquez pas l'information entre le mode solo ou multi pusique c'est la même séquence (ou présentez la sauvegarde du clavardage dans un [opt]).  La reprise vidéo est propre à chaque joueur : le dernier OPT ne fait pas de sens. Manque la présentation des différentes actions durant la reprise : rejouer les actions, mettre en pause/jouer, changer la vitesse,. etc.
+Globalement bien comme sections, mais la page 13 est à revoir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Il faut détaillé chaque requete HTTP (Endpoint, Méthode, Params, Body, Code retour, Content-type et Response) et non pas les décrire dans un seul paragraphe. 
+- Manque de code de retour pour chaque requête HTTP
+- Informations et explications des paquets webSocket est bien fait, mais c'est recommandé de mettre le tout dans un tableau. 
+- N'oublier pas d'inclure la source de chaque évenement socket. 
+- Ajouter les interfaces utilisées dans les body des requêtes HTTP et les evenements sockets. 
+- Description des paquets HTTP à refaire. </t>
+  </si>
+  <si>
+    <t>4 Vue logique /6</t>
+  </si>
+  <si>
+    <t>Commentaire général : évitez des paquetages "flottants". Ex : page 14 ou le client devrait communiquer avec le Server qui communiquer avec la BD.
+Pages 15 à 18 : diagrammes trop sous-divisés. Difficile de voir l'ensemble des relations. Ex : game-cration-page devrait être relié à une classe de communication serveur (ex : socket-client).
+Page 17 ; est-ce que "game" est un component ou un service ou une simple classe ? Le diagramme n'est pas clair et porte à confusion avec "game" utilisé comme un component ici, mais un service à la page 18.
+Page 18 : où est la représentation de la communication par HTTP avec votre serveur ? Le texte descriptif est incomplet à la fin.
+Pages 19 et 20 : mêmes commentaires que pour le client : tout ceci aurait dû être 1 seul diagramme. Il manque la présentation de la couche de logique de votre serveur. Ce n'est pas clair quelles classes intéragissent avec "game-database".
+Section incomplète à revoir.</t>
+  </si>
+  <si>
+    <t>5 Vue de déploiement /2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention à la notation UML ; Base de données, Serveur et Client ne sont pas des paquetages.
+Quel est le système d'exploitation de l'appareil du client ?
+Quel est le système d'exploitation de l'appareil du serveur ?
+NestJS est un cadriciel : vous utiliez l'environnement d'exécution NodeJS
+Manque l'information où exactement est déployée votre base de données (MongoDB)
+</t>
+  </si>
+  <si>
+    <t>Forme /1</t>
+  </si>
+  <si>
+    <t>Pages 11 et 12 : titre sur une page différente que le diagramme
+Section 4 : pas de titre à la page 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - La description des paquets peut être plus claires en utilisant des tableau et montrer les interfaces.</t>
+  </si>
+  <si>
+    <t>FOND</t>
+  </si>
+  <si>
+    <t>FORME</t>
+  </si>
+  <si>
+    <t>NOTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -630,8 +811,35 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,8 +983,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1443,6 +1675,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1453,7 +1754,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2078,15 +2379,69 @@
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="28" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2242,6 +2597,9 @@
     </xf>
     <xf numFmtId="2" fontId="17" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2632,10 +2990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088FA667-0374-4556-B71F-558CE1E91347}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2648,7 +3006,7 @@
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:8" ht="30.75">
       <c r="A3" s="40"/>
       <c r="B3" s="126" t="s">
         <v>0</v>
@@ -2668,10 +3026,13 @@
       <c r="G3" s="129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="108">
         <f>(Fonctionnalités!E15)</f>
@@ -2693,22 +3054,23 @@
         <f>D4*F4</f>
         <v>17.224</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="111"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E28)</f>
-        <v>0</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0</v>
+        <v>0.61449999999999994</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -2716,12 +3078,16 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>15.128</v>
+      </c>
+      <c r="H5" s="116">
+        <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
+        <v>3.7124999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E43)</f>
@@ -2743,10 +3109,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="121">
+        <f>AVERAGE(Documents!C18,Documents!G18)*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
@@ -2761,6 +3131,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H7" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,8 +3143,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2792,36 +3163,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="219" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="A2" s="237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="220" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
+      <c r="A4" s="238" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="238"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -2841,62 +3212,62 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="237" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="224" t="s">
+      <c r="A6" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="239" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241" t="s">
+      <c r="B6" s="242" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="243"/>
-      <c r="I6" s="221" t="s">
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="222"/>
-      <c r="K6" s="223"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="239" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="240"/>
+      <c r="K6" s="241"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="236"/>
-      <c r="P6" s="236"/>
+      <c r="N6" s="253"/>
+      <c r="O6" s="254"/>
+      <c r="P6" s="254"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="238"/>
-      <c r="B7" s="225"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="243"/>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2906,24 +3277,24 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="234" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="234"/>
-      <c r="C8" s="227" t="s">
+      <c r="A8" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="228"/>
+      <c r="B8" s="252"/>
+      <c r="C8" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="246"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="228"/>
+      <c r="F8" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="246"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="228"/>
+      <c r="I8" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="246"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2934,10 +3305,10 @@
     </row>
     <row r="9" spans="1:17" ht="45.75">
       <c r="A9" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="100">
         <v>0.75</v>
@@ -2946,13 +3317,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="102"/>
+        <v>21</v>
+      </c>
+      <c r="F9" s="102">
+        <v>0.7</v>
+      </c>
       <c r="G9" s="99">
         <v>6</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="103" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="104"/>
       <c r="J9" s="105">
         <v>6</v>
@@ -2965,12 +3340,12 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="30.75">
+    <row r="10" spans="1:17" ht="76.5">
       <c r="A10" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="100">
         <v>0.9</v>
@@ -2979,13 +3354,17 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="102"/>
+        <v>25</v>
+      </c>
+      <c r="F10" s="102">
+        <v>0.8</v>
+      </c>
       <c r="G10" s="99">
         <v>2</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="103" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="104"/>
       <c r="J10" s="105">
         <v>2</v>
@@ -2999,10 +3378,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="230"/>
+      <c r="A11" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="248"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>6.3</v>
@@ -3014,7 +3393,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
+        <v>5.7999999999999989</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3038,26 +3417,26 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="234" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="228"/>
+      <c r="A12" s="252" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="252"/>
+      <c r="C12" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="246"/>
       <c r="E12" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="228"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="246"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="228"/>
+      <c r="I12" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="246"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3068,10 +3447,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="79">
         <v>1</v>
@@ -3080,14 +3459,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="89"/>
+        <v>32</v>
+      </c>
+      <c r="F13" s="89">
+        <v>1</v>
+      </c>
       <c r="G13" s="90">
         <f>D13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="91" t="s">
+        <v>32</v>
+      </c>
       <c r="I13" s="92"/>
       <c r="J13" s="93">
         <f>G13</f>
@@ -3099,10 +3482,10 @@
     </row>
     <row r="14" spans="1:17" ht="45.75">
       <c r="A14" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" s="83">
         <v>1</v>
@@ -3111,14 +3494,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="86"/>
+        <v>32</v>
+      </c>
+      <c r="F14" s="86">
+        <v>1</v>
+      </c>
       <c r="G14" s="90">
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="88"/>
+      <c r="H14" s="88" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="76"/>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
@@ -3130,10 +3517,10 @@
     </row>
     <row r="15" spans="1:17" ht="45.75">
       <c r="A15" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3142,14 +3529,18 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="86"/>
+        <v>37</v>
+      </c>
+      <c r="F15" s="86">
+        <v>0</v>
+      </c>
       <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="88" t="s">
+        <v>37</v>
+      </c>
       <c r="I15" s="76"/>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
@@ -3159,12 +3550,12 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="30.75">
+    <row r="16" spans="1:17" ht="60.75">
       <c r="A16" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3173,14 +3564,18 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="86"/>
+        <v>32</v>
+      </c>
+      <c r="F16" s="86">
+        <v>0.25</v>
+      </c>
       <c r="G16" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="88" t="s">
+        <v>40</v>
+      </c>
       <c r="I16" s="76"/>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
@@ -3192,10 +3587,10 @@
     </row>
     <row r="17" spans="1:17" ht="198">
       <c r="A17" s="23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" s="83">
         <v>0</v>
@@ -3204,14 +3599,18 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="86"/>
+        <v>43</v>
+      </c>
+      <c r="F17" s="86">
+        <v>0</v>
+      </c>
       <c r="G17" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>44</v>
+      </c>
       <c r="I17" s="76"/>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
@@ -3222,10 +3621,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="230"/>
+      <c r="A18" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="248"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>9</v>
@@ -3237,7 +3636,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -3261,36 +3660,36 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="226" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="228"/>
+      <c r="A19" s="244" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="244"/>
+      <c r="C19" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="246"/>
       <c r="E19" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="228"/>
+        <v>29</v>
+      </c>
+      <c r="F19" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="246"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="228"/>
+      <c r="I19" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="246"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="45.75">
       <c r="A20" s="23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C20" s="83">
         <v>0.8</v>
@@ -3299,13 +3698,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="86"/>
+        <v>48</v>
+      </c>
+      <c r="F20" s="86">
+        <v>0.25</v>
+      </c>
       <c r="G20" s="87">
         <v>3</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="88" t="s">
+        <v>49</v>
+      </c>
       <c r="I20" s="76"/>
       <c r="J20" s="77">
         <v>3</v>
@@ -3316,10 +3719,10 @@
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3328,13 +3731,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="86"/>
+        <v>32</v>
+      </c>
+      <c r="F21" s="86">
+        <v>1</v>
+      </c>
       <c r="G21" s="87">
         <v>3</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="88" t="s">
+        <v>32</v>
+      </c>
       <c r="I21" s="76"/>
       <c r="J21" s="77">
         <v>3</v>
@@ -3344,10 +3751,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="231" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="232"/>
+      <c r="A22" s="249" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="250"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>5.4</v>
@@ -3359,7 +3766,7 @@
       <c r="E22" s="59"/>
       <c r="F22" s="60">
         <f>SUMPRODUCT(F20:F21,G20:G21)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G22" s="61">
         <f>SUM(G20:G21)</f>
@@ -3380,35 +3787,35 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="214" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B23" s="214"/>
-      <c r="C23" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="228"/>
+      <c r="C23" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="246"/>
       <c r="E23" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="228"/>
+        <v>29</v>
+      </c>
+      <c r="F23" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="246"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="228"/>
+      <c r="I23" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="246"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3417,13 +3824,17 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="82"/>
+        <v>32</v>
+      </c>
+      <c r="F24" s="82">
+        <v>1</v>
+      </c>
       <c r="G24" s="27">
         <v>1</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="I24" s="73"/>
       <c r="J24" s="74">
         <v>1</v>
@@ -3432,12 +3843,12 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="76.5">
+    <row r="25" spans="1:17" ht="121.5">
       <c r="A25" s="23" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C25" s="83">
         <v>0.8</v>
@@ -3446,13 +3857,17 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="86"/>
+        <v>57</v>
+      </c>
+      <c r="F25" s="86">
+        <v>0</v>
+      </c>
       <c r="G25" s="87">
         <v>2</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="88" t="s">
+        <v>58</v>
+      </c>
       <c r="I25" s="76"/>
       <c r="J25" s="77">
         <v>2</v>
@@ -3463,10 +3878,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3475,13 +3890,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="86"/>
+        <v>32</v>
+      </c>
+      <c r="F26" s="86">
+        <v>1</v>
+      </c>
       <c r="G26" s="87">
         <v>1</v>
       </c>
-      <c r="H26" s="88"/>
+      <c r="H26" s="88" t="s">
+        <v>32</v>
+      </c>
       <c r="I26" s="76"/>
       <c r="J26" s="77">
         <v>1</v>
@@ -3491,10 +3910,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="233" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="232"/>
+      <c r="A27" s="251" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="250"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>3.6</v>
@@ -3506,7 +3925,7 @@
       <c r="E27" s="49"/>
       <c r="F27" s="60">
         <f>SUMPRODUCT(F24:F26,G24:G26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="61">
         <f>SUM(G24:G26)</f>
@@ -3526,36 +3945,36 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="226" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="226"/>
-      <c r="C28" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="228"/>
+      <c r="A28" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="244"/>
+      <c r="C28" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="246"/>
       <c r="E28" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="228"/>
+        <v>62</v>
+      </c>
+      <c r="F28" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="246"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="228"/>
+      <c r="I28" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="246"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" ht="30.75">
       <c r="A29" s="31" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C29" s="79">
         <v>1</v>
@@ -3564,14 +3983,18 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="89"/>
+        <v>65</v>
+      </c>
+      <c r="F29" s="89">
+        <v>0.25</v>
+      </c>
       <c r="G29" s="90">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="H29" s="95"/>
+      <c r="H29" s="95" t="s">
+        <v>66</v>
+      </c>
       <c r="I29" s="92"/>
       <c r="J29" s="93">
         <f>D29</f>
@@ -3583,10 +4006,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -3595,7 +4018,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="F30" s="86">
+        <v>1</v>
+      </c>
       <c r="G30" s="90">
         <f t="shared" ref="G30:G31" si="2">D30</f>
         <v>2</v>
@@ -3612,10 +4037,10 @@
     </row>
     <row r="31" spans="1:17" ht="30.75">
       <c r="A31" s="24" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C31" s="83">
         <v>0.5</v>
@@ -3624,9 +4049,11 @@
         <v>2</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="86"/>
+        <v>71</v>
+      </c>
+      <c r="F31" s="86">
+        <v>1</v>
+      </c>
       <c r="G31" s="90">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3642,10 +4069,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="230"/>
+      <c r="A32" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="248"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>5</v>
@@ -3657,7 +4084,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -3677,24 +4104,24 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="234" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="228"/>
+      <c r="A33" s="252" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="252"/>
+      <c r="C33" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="246"/>
       <c r="E33" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="228"/>
+        <v>62</v>
+      </c>
+      <c r="F33" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="246"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" s="66"/>
       <c r="K33" s="46"/>
@@ -3703,10 +4130,10 @@
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -3715,7 +4142,9 @@
         <v>2</v>
       </c>
       <c r="E34" s="81"/>
-      <c r="F34" s="89"/>
+      <c r="F34" s="89">
+        <v>1</v>
+      </c>
       <c r="G34" s="90">
         <v>2</v>
       </c>
@@ -3730,10 +4159,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -3742,7 +4171,9 @@
         <v>2</v>
       </c>
       <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
+      <c r="F35" s="86">
+        <v>1</v>
+      </c>
       <c r="G35" s="87">
         <v>2</v>
       </c>
@@ -3757,10 +4188,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -3769,7 +4200,9 @@
         <v>3</v>
       </c>
       <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
+      <c r="F36" s="86">
+        <v>1</v>
+      </c>
       <c r="G36" s="87">
         <v>3</v>
       </c>
@@ -3784,10 +4217,10 @@
     </row>
     <row r="37" spans="1:13" ht="45.75">
       <c r="A37" s="23" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C37" s="83">
         <v>0.7</v>
@@ -3796,9 +4229,11 @@
         <v>3</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="86"/>
+        <v>81</v>
+      </c>
+      <c r="F37" s="86">
+        <v>1</v>
+      </c>
       <c r="G37" s="87">
         <v>3</v>
       </c>
@@ -3811,11 +4246,11 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="230"/>
+    <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A38" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="248"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>9.1</v>
@@ -3827,13 +4262,15 @@
       <c r="E38" s="49"/>
       <c r="F38" s="70">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="51">
         <f>SUM(G34:G37)</f>
         <v>10</v>
       </c>
-      <c r="H38" s="52"/>
+      <c r="H38" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
         <v>0</v>
@@ -3848,35 +4285,35 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="228"/>
+      <c r="C39" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="246"/>
       <c r="E39" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="228"/>
+        <v>83</v>
+      </c>
+      <c r="F39" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="246"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="228"/>
+      <c r="I39" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="246"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C40" s="83">
         <v>1</v>
@@ -3885,14 +4322,18 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="86"/>
+        <v>65</v>
+      </c>
+      <c r="F40" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G40" s="87">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="H40" s="88"/>
+      <c r="H40" s="88" t="s">
+        <v>86</v>
+      </c>
       <c r="I40" s="76"/>
       <c r="J40" s="77">
         <f>D40</f>
@@ -3904,10 +4345,10 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C41" s="83">
         <v>1</v>
@@ -3916,14 +4357,18 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="86"/>
+        <v>89</v>
+      </c>
+      <c r="F41" s="86">
+        <v>0</v>
+      </c>
       <c r="G41" s="87">
         <f t="shared" ref="G41:G48" si="4">D41</f>
         <v>2</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="88" t="s">
+        <v>90</v>
+      </c>
       <c r="I41" s="76"/>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
@@ -3933,12 +4378,12 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="30.75">
       <c r="A42" s="23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C42" s="83">
         <v>0</v>
@@ -3947,14 +4392,18 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="86"/>
+        <v>93</v>
+      </c>
+      <c r="F42" s="86">
+        <v>0</v>
+      </c>
       <c r="G42" s="87">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H42" s="88"/>
+      <c r="H42" s="88" t="s">
+        <v>94</v>
+      </c>
       <c r="I42" s="76"/>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
@@ -3963,12 +4412,12 @@
       <c r="K42" s="78"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="60.75">
       <c r="A43" s="23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C43" s="83">
         <v>1</v>
@@ -3977,14 +4426,18 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="86"/>
+        <v>89</v>
+      </c>
+      <c r="F43" s="86">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="88" t="s">
+        <v>97</v>
+      </c>
       <c r="I43" s="76"/>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
@@ -3996,10 +4449,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="23" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4008,14 +4461,18 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="86"/>
+        <v>89</v>
+      </c>
+      <c r="F44" s="86">
+        <v>1</v>
+      </c>
       <c r="G44" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="88" t="s">
+        <v>89</v>
+      </c>
       <c r="I44" s="76"/>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
@@ -4025,12 +4482,12 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="45.75">
+    <row r="45" spans="1:13" ht="106.5">
       <c r="A45" s="23" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C45" s="83">
         <v>0.5</v>
@@ -4039,14 +4496,18 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="86"/>
+        <v>102</v>
+      </c>
+      <c r="F45" s="86">
+        <v>0</v>
+      </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="88" t="s">
+        <v>103</v>
+      </c>
       <c r="I45" s="76"/>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
@@ -4058,10 +4519,10 @@
     </row>
     <row r="46" spans="1:13" ht="30.75">
       <c r="A46" s="23" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C46" s="83">
         <v>1</v>
@@ -4070,14 +4531,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="86"/>
+        <v>89</v>
+      </c>
+      <c r="F46" s="86">
+        <v>0.8</v>
+      </c>
       <c r="G46" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H46" s="88"/>
+      <c r="H46" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="I46" s="76"/>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
@@ -4087,12 +4552,12 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="76.5">
+    <row r="47" spans="1:13" ht="106.5">
       <c r="A47" s="23" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C47" s="83">
         <v>0.75</v>
@@ -4101,14 +4566,18 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="86"/>
+        <v>109</v>
+      </c>
+      <c r="F47" s="86">
+        <v>0.6</v>
+      </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H47" s="88"/>
+      <c r="H47" s="88" t="s">
+        <v>110</v>
+      </c>
       <c r="I47" s="76"/>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
@@ -4120,10 +4589,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4132,9 +4601,11 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="86"/>
+        <v>89</v>
+      </c>
+      <c r="F48" s="86">
+        <v>1</v>
+      </c>
       <c r="G48" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4150,10 +4621,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="230"/>
+      <c r="A49" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="248"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>32.5</v>
@@ -4165,7 +4636,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4189,36 +4660,38 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="234" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="234"/>
-      <c r="C50" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="228"/>
+      <c r="A50" s="252" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="252"/>
+      <c r="C50" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="246"/>
       <c r="E50" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="228"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="228"/>
+        <v>83</v>
+      </c>
+      <c r="F50" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="246"/>
+      <c r="H50" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="245" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="246"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4227,13 +4700,17 @@
         <v>2</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="82"/>
+        <v>65</v>
+      </c>
+      <c r="F51" s="82">
+        <v>1</v>
+      </c>
       <c r="G51" s="27">
         <v>2</v>
       </c>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="I51" s="73"/>
       <c r="J51" s="74">
         <v>2</v>
@@ -4244,10 +4721,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4256,13 +4733,17 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="86"/>
+        <v>89</v>
+      </c>
+      <c r="F52" s="86">
+        <v>1</v>
+      </c>
       <c r="G52" s="87">
         <v>2</v>
       </c>
-      <c r="H52" s="88"/>
+      <c r="H52" s="88" t="s">
+        <v>89</v>
+      </c>
       <c r="I52" s="76"/>
       <c r="J52" s="77">
         <v>2</v>
@@ -4273,10 +4754,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C53" s="83">
         <v>0</v>
@@ -4285,13 +4766,17 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="86"/>
+        <v>120</v>
+      </c>
+      <c r="F53" s="86">
+        <v>1</v>
+      </c>
       <c r="G53" s="87">
         <v>1</v>
       </c>
-      <c r="H53" s="88"/>
+      <c r="H53" s="88" t="s">
+        <v>65</v>
+      </c>
       <c r="I53" s="76"/>
       <c r="J53" s="77">
         <v>1</v>
@@ -4300,12 +4785,12 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="60.75">
+    <row r="54" spans="1:17" ht="91.5">
       <c r="A54" s="23" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -4314,11 +4799,15 @@
         <v>4</v>
       </c>
       <c r="E54" s="85"/>
-      <c r="F54" s="86"/>
+      <c r="F54" s="86">
+        <v>0</v>
+      </c>
       <c r="G54" s="87">
         <v>4</v>
       </c>
-      <c r="H54" s="88"/>
+      <c r="H54" s="88" t="s">
+        <v>123</v>
+      </c>
       <c r="I54" s="76"/>
       <c r="J54" s="77">
         <v>4</v>
@@ -4329,10 +4818,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4341,11 +4830,15 @@
         <v>2</v>
       </c>
       <c r="E55" s="85"/>
-      <c r="F55" s="86"/>
+      <c r="F55" s="86">
+        <v>1</v>
+      </c>
       <c r="G55" s="87">
         <v>2</v>
       </c>
-      <c r="H55" s="88"/>
+      <c r="H55" s="88" t="s">
+        <v>89</v>
+      </c>
       <c r="I55" s="76"/>
       <c r="J55" s="77">
         <v>2</v>
@@ -4355,10 +4848,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="230"/>
+      <c r="A56" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="248"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>10</v>
@@ -4370,7 +4863,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4390,27 +4883,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="257" t="s">
+      <c r="A57" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="258"/>
-      <c r="C57" s="258"/>
-      <c r="D57" s="258"/>
-      <c r="E57" s="258"/>
-      <c r="F57" s="258"/>
-      <c r="G57" s="258"/>
-      <c r="H57" s="258"/>
-      <c r="I57" s="258"/>
-      <c r="J57" s="258"/>
-      <c r="K57" s="259"/>
+      <c r="B57" s="276"/>
+      <c r="C57" s="276"/>
+      <c r="D57" s="276"/>
+      <c r="E57" s="276"/>
+      <c r="F57" s="276"/>
+      <c r="G57" s="276"/>
+      <c r="H57" s="276"/>
+      <c r="I57" s="276"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="277"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="244" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="245"/>
+      <c r="A58" s="262" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="263"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>80.900000000000006</v>
@@ -4422,7 +4915,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>0</v>
+        <v>61.449999999999996</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -4442,28 +4935,28 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="246" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="247"/>
-      <c r="C59" s="248">
+      <c r="A59" s="264" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="265"/>
+      <c r="C59" s="266">
         <f>C58/D58</f>
         <v>0.80900000000000005</v>
       </c>
-      <c r="D59" s="249"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="251">
+      <c r="D59" s="267"/>
+      <c r="E59" s="268"/>
+      <c r="F59" s="269">
         <f>F58/G58</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="252"/>
-      <c r="H59" s="253"/>
-      <c r="I59" s="254">
+        <v>0.61449999999999994</v>
+      </c>
+      <c r="G59" s="270"/>
+      <c r="H59" s="271"/>
+      <c r="I59" s="272">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256"/>
+      <c r="J59" s="273"/>
+      <c r="K59" s="274"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
@@ -4541,8 +5034,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4557,15 +5050,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="260" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
+      <c r="A2" s="278" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -4578,7 +5071,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4589,42 +5082,42 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="264" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="A6" s="282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="283"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="283"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="284"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -4640,15 +5133,15 @@
         <v>4</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -4664,15 +5157,15 @@
         <v>12</v>
       </c>
       <c r="F9" s="137" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -4688,15 +5181,15 @@
         <v>10</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B11" s="137">
         <v>0.9</v>
@@ -4712,15 +5205,15 @@
         <v>10.8</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -4736,15 +5229,15 @@
         <v>20</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="133" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B13" s="134">
         <v>1</v>
@@ -4764,7 +5257,7 @@
     </row>
     <row r="14" spans="1:7" ht="45.75">
       <c r="A14" s="136" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B14" s="137">
         <v>0.8</v>
@@ -4780,16 +5273,16 @@
         <v>20.8</v>
       </c>
       <c r="F14" s="137"/>
-      <c r="G14" s="218" t="s">
-        <v>124</v>
+      <c r="G14" s="217" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
+        <v>141</v>
+      </c>
+      <c r="B15" s="285"/>
+      <c r="C15" s="285"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
@@ -4803,26 +5296,26 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="144"/>
       <c r="D16" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="147" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B17" s="148">
         <v>0</v>
@@ -4840,7 +5333,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="151" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B18" s="152">
         <v>0</v>
@@ -4857,182 +5350,210 @@
       <c r="G18" s="154"/>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="268" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="269"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="270"/>
+      <c r="A19" s="286" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="287"/>
+      <c r="C19" s="287"/>
+      <c r="D19" s="287"/>
+      <c r="E19" s="287"/>
+      <c r="F19" s="287"/>
+      <c r="G19" s="288"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="155" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B20" s="156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D20" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F20" s="156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="157" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.75">
       <c r="A21" s="158" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B21" s="159">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C21" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="159">
         <v>26</v>
       </c>
       <c r="E21" s="159">
         <f>B21*C21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="159"/>
-      <c r="G21" s="160"/>
-    </row>
-    <row r="22" spans="1:7">
+        <v>24.7</v>
+      </c>
+      <c r="F21" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="236" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30.75">
       <c r="A22" s="161" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B22" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="162">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="162">
         <v>14</v>
       </c>
       <c r="E22" s="162">
         <f t="shared" ref="E22:E28" si="1">B22*C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="235" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="158" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B23" s="159">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C23" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="159">
         <v>26</v>
       </c>
       <c r="E23" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
+        <v>23.400000000000002</v>
+      </c>
+      <c r="F23" s="159" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="160" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="161" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B24" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="162">
         <v>12</v>
       </c>
       <c r="E24" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
+        <v>12</v>
+      </c>
+      <c r="F24" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="163" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="158" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B25" s="159">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C25" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="159">
         <v>8</v>
       </c>
       <c r="E25" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
+        <v>6.4</v>
+      </c>
+      <c r="F25" s="159" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="160" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="161" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B26" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="162">
         <v>6</v>
       </c>
       <c r="E26" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
-    </row>
-    <row r="27" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="F26" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="163" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30.75">
       <c r="A27" s="215" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B27" s="215">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C27" s="215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="215">
         <v>8</v>
       </c>
       <c r="E27" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="215"/>
-      <c r="G27" s="216"/>
+        <v>7.6</v>
+      </c>
+      <c r="F27" s="215" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="215" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="164" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B28" s="165"/>
       <c r="C28" s="165"/>
@@ -5041,37 +5562,37 @@
         <v>100</v>
       </c>
       <c r="E28" s="166">
-        <f>(SUM(E21:E26) + E30+E31+E32)/D28</f>
-        <v>0</v>
+        <f>(SUM(E21:E27) + E30+E31+E32)/D28</f>
+        <v>0.85099999999999998</v>
       </c>
       <c r="F28" s="166"/>
       <c r="G28" s="167"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="168" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B29" s="169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="169"/>
       <c r="D29" s="169" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="170" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F29" s="170"/>
       <c r="G29" s="171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="172" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B30" s="173">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C30" s="173"/>
       <c r="D30" s="174">
@@ -5079,14 +5600,16 @@
       </c>
       <c r="E30" s="173">
         <f>B30*D30</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F30" s="173"/>
-      <c r="G30" s="175"/>
+      <c r="G30" s="175" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="176" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B31" s="177">
         <v>0</v>
@@ -5104,7 +5627,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="180" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B32" s="181">
         <v>0</v>
@@ -5121,42 +5644,42 @@
       <c r="G32" s="183"/>
     </row>
     <row r="33" spans="1:7" ht="23.25">
-      <c r="A33" s="261" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="262"/>
-      <c r="C33" s="262"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="263"/>
+      <c r="A33" s="279" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="280"/>
+      <c r="C33" s="280"/>
+      <c r="D33" s="280"/>
+      <c r="E33" s="280"/>
+      <c r="F33" s="280"/>
+      <c r="G33" s="281"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="184" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B34" s="185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="185" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D34" s="185" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="185" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F34" s="185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="187" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B35" s="188">
         <v>0</v>
@@ -5176,7 +5699,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="190" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B36" s="191">
         <v>0</v>
@@ -5196,7 +5719,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="187" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B37" s="188">
         <v>0</v>
@@ -5216,7 +5739,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="190" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B38" s="191">
         <v>0</v>
@@ -5236,7 +5759,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="187" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B39" s="188">
         <v>0</v>
@@ -5256,7 +5779,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="190" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B40" s="191">
         <v>0</v>
@@ -5276,7 +5799,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="187" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B41" s="188">
         <v>0</v>
@@ -5295,28 +5818,28 @@
       <c r="G41" s="189"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="217" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="217">
-        <v>0</v>
-      </c>
-      <c r="C42" s="217">
-        <v>0</v>
-      </c>
-      <c r="D42" s="217">
+      <c r="A42" s="216" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="216">
+        <v>0</v>
+      </c>
+      <c r="C42" s="216">
+        <v>0</v>
+      </c>
+      <c r="D42" s="216">
         <v>20</v>
       </c>
       <c r="E42" s="188">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="193" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B43" s="194"/>
       <c r="C43" s="194"/>
@@ -5325,7 +5848,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="195">
-        <f>(SUM(E35:E41) +E45+E46+E47)/D43</f>
+        <f>(SUM(E35:E42) +E45+E46+E47)/D43</f>
         <v>0</v>
       </c>
       <c r="F43" s="195"/>
@@ -5333,26 +5856,26 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="197" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B44" s="198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="198"/>
       <c r="D44" s="198" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="199" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F44" s="199"/>
       <c r="G44" s="200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="201" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B45" s="202">
         <v>0</v>
@@ -5370,7 +5893,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="205" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B46" s="206">
         <v>0</v>
@@ -5388,7 +5911,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="209" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B47" s="210">
         <v>0</v>
@@ -5430,22 +5953,276 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD98A34-AAF1-43A5-99A4-46A8EF195F17}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="289" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="289"/>
+      <c r="E1" s="289" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="289"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="B2" s="218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="218" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="219" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="220"/>
+      <c r="E3" s="219" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="220"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="221" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="222">
+        <v>1</v>
+      </c>
+      <c r="C4" s="222"/>
+      <c r="E4" s="221" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="222">
+        <v>1</v>
+      </c>
+      <c r="G4" s="222"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="219"/>
+      <c r="B5" s="223" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="219" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="223" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="221" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="222">
+        <v>4</v>
+      </c>
+      <c r="C6" s="222"/>
+      <c r="E6" s="221" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="222">
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="222"/>
+    </row>
+    <row r="7" spans="1:7" ht="307.5">
+      <c r="A7" s="219"/>
+      <c r="B7" s="220" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="219"/>
+      <c r="F7" s="220" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="221" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="222">
+        <v>4.75</v>
+      </c>
+      <c r="C8" s="222"/>
+      <c r="E8" s="221" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="222">
+        <v>7.5</v>
+      </c>
+      <c r="G8" s="222"/>
+    </row>
+    <row r="9" spans="1:7" ht="307.5">
+      <c r="A9" s="219"/>
+      <c r="B9" s="220" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="225"/>
+      <c r="F9" s="224" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="221" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="222">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="222"/>
+    </row>
+    <row r="11" spans="1:7" ht="243">
+      <c r="A11" s="219"/>
+      <c r="B11" s="226" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="221" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="222">
+        <v>1.75</v>
+      </c>
+      <c r="C12" s="222"/>
+    </row>
+    <row r="13" spans="1:7" ht="91.5">
+      <c r="A13" s="225"/>
+      <c r="B13" s="233" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="227" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="222">
+        <v>0.9</v>
+      </c>
+      <c r="C14" s="222"/>
+      <c r="E14" s="227" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="228">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="222"/>
+    </row>
+    <row r="15" spans="1:7" ht="32.25">
+      <c r="A15" s="219"/>
+      <c r="B15" s="234" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="219"/>
+      <c r="F15" s="224" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="229" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="230">
+        <f t="shared" ref="B16" si="0">SUM(B4,B6,B8,B10,B12)</f>
+        <v>15</v>
+      </c>
+      <c r="C16" s="230">
+        <f>SUM(C4,C6,C8,C10,C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="229" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="230">
+        <f>SUM(F4,F6,F8)</f>
+        <v>14</v>
+      </c>
+      <c r="G16" s="230">
+        <f>SUM(G4,G6,G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="229" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="230">
+        <f t="shared" ref="B17" si="1">B14</f>
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="230">
+        <f>C14</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="229" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="230">
+        <f>F14</f>
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="230">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="231" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="232">
+        <f t="shared" ref="B18" si="2">B16/20*0.9+B17*0.1</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C18" s="232">
+        <f>C16/20*0.9+C17*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="231" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="232">
+        <f>F16/20*0.9+F17*0.1</f>
+        <v>0.72</v>
+      </c>
+      <c r="G18" s="232">
+        <f>G16/20*0.9+G17*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5577,14 +6354,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>